--- a/results_small/Res_Simulate_data_small_grades.xlsx
+++ b/results_small/Res_Simulate_data_small_grades.xlsx
@@ -46,14 +46,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EEAC7"/>
-        <bgColor rgb="FF8EEAC7"/>
+        <fgColor rgb="FFF4E3E7"/>
+        <bgColor rgb="FFF4E3E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCACAD7"/>
-        <bgColor rgb="FFCACAD7"/>
+        <fgColor rgb="FFBC94E6"/>
+        <bgColor rgb="FFBC94E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EEAC7"/>
+        <bgColor rgb="FF8EEAC7"/>
       </patternFill>
     </fill>
     <fill>
@@ -64,20 +70,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC94E6"/>
-        <bgColor rgb="FFBC94E6"/>
+        <fgColor rgb="FFE6B3DC"/>
+        <bgColor rgb="FFE6B3DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E3E7"/>
-        <bgColor rgb="FFF4E3E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B3DC"/>
-        <bgColor rgb="FFE6B3DC"/>
+        <fgColor rgb="FFCACAD7"/>
+        <bgColor rgb="FFCACAD7"/>
       </patternFill>
     </fill>
   </fills>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.484705882352941</v>
+        <v>-8.459117647058825</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.570825099945068</v>
+        <v>4.153939962387085</v>
       </c>
     </row>
     <row r="4">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>382411</v>
+        <v>383305</v>
       </c>
     </row>
     <row r="4">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.48</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10716</v>
+        <v>11451</v>
       </c>
     </row>
     <row r="3">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11695</v>
+        <v>11854</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22411</v>
+        <v>23305</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -956,63 +956,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 4</t>
+          <t>Person 3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Person 8</t>
+          <t>Person 4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 11</t>
+          <t>Person 8</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 12</t>
+          <t>Person 11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 19</t>
+          <t>Person 12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -1021,63 +1021,63 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 20</t>
+          <t>Person 19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 22</t>
+          <t>Person 20</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 26</t>
+          <t>Person 22</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 28</t>
+          <t>Person 26</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 29</t>
+          <t>Person 28</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
@@ -1086,33 +1086,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 32</t>
+          <t>Person 29</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 34</t>
+          <t>Person 32</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Person 41</t>
+          <t>Person 34</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1125,33 +1125,33 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Person 45</t>
+          <t>Person 41</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Person 54</t>
+          <t>Person 45</t>
         </is>
       </c>
       <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
         <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Person 55</t>
+          <t>Person 54</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1164,46 +1164,46 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 56</t>
+          <t>Person 55</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
         <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 59</t>
+          <t>Person 56</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 63</t>
+          <t>Person 59</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 64</t>
+          <t>Person 63</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1216,20 +1216,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Person 68</t>
+          <t>Person 64</t>
         </is>
       </c>
       <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
         <v>4</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Person 70</t>
+          <t>Person 68</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1242,7 +1242,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 71</t>
+          <t>Person 70</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1255,20 +1255,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 76</t>
+          <t>Person 71</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Person 86</t>
+          <t>Person 76</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1281,20 +1281,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Person 89</t>
+          <t>Person 86</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 91</t>
+          <t>Person 89</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
         <v>5</v>
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
         <v>5</v>
@@ -1448,54 +1448,54 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 20</t>
+          <t>Person 34</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Person 26</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 41</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>DONS</t>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 32</t>
+          <t>Person 54</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>DONS</t>
+          <t>MDCA</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="n"/>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="n"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>MDCA</t>
@@ -1505,20 +1505,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 34</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 55</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="n"/>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>DONS</t>
@@ -1528,20 +1528,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 41</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
+          <t>Person 59</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="n"/>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="n"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>GS</t>
@@ -1551,20 +1551,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 55</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
+          <t>Person 103</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="n"/>
+      <c r="H8" s="6" t="n"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>GO</t>
@@ -1574,17 +1574,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 59</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 20</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
       <c r="H9" s="2" t="n"/>
@@ -1597,20 +1602,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 103</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="n"/>
+          <t>Person 26</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="n"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>SAR</t>
@@ -1620,25 +1630,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 11</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
+          <t>Person 86</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
@@ -1647,79 +1652,79 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 45</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 3</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 63</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
+          <t>Person 11</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 64</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
+          <t>Person 45</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
@@ -1728,54 +1733,54 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Person 76</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 63</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Person 96</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 64</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
@@ -1785,12 +1790,12 @@
           <t>Person 56</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
@@ -1802,12 +1807,12 @@
           <t>Person 111</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -1816,101 +1821,106 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 2</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>OTS</t>
+          <t>Person 4</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 29</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 12</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 89</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F21" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 19</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 92</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
+          <t>Person 96</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="F22" s="7" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -1922,166 +1932,166 @@
           <t>Person 99</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="D23" s="7" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="E23" s="7" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="F23" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Person 22</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 118</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 4</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 12</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 22</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Person 19</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 28</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Person 86</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 29</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 118</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 76</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Person 28</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
+          <t>Person 32</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
@@ -2090,15 +2100,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Person 54</t>
-        </is>
-      </c>
-      <c r="E31" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F31" s="6" t="inlineStr">
+          <t>Person 68</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
@@ -2107,15 +2117,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Person 68</t>
+          <t>Person 70</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F32" s="6" t="inlineStr">
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
@@ -2124,49 +2134,49 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Person 70</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="inlineStr">
+          <t>Person 71</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>MDCA</t>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Person 71</t>
+          <t>Person 89</t>
         </is>
       </c>
       <c r="E34" s="6" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Person 91</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
+          <t>Person 92</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -2230,19 +2240,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>-0</v>
@@ -2255,19 +2265,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
         <v>-0</v>
@@ -2280,19 +2290,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2305,19 +2315,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
         <v>-0</v>
@@ -2330,19 +2340,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F6" t="n">
         <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9951</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
@@ -2355,19 +2365,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>-0</v>

--- a/results_small/Res_Simulate_data_small_grades.xlsx
+++ b/results_small/Res_Simulate_data_small_grades.xlsx
@@ -46,12 +46,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E3E7"/>
-        <bgColor rgb="FFF4E3E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBC94E6"/>
         <bgColor rgb="FFBC94E6"/>
       </patternFill>
@@ -72,6 +66,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B3DC"/>
         <bgColor rgb="FFE6B3DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E3E7"/>
+        <bgColor rgb="FFF4E3E7"/>
       </patternFill>
     </fill>
     <fill>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.153939962387085</v>
+        <v>3.997750043869019</v>
       </c>
     </row>
     <row r="4">
@@ -862,7 +862,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Standar</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B2" t="n">
